--- a/website_content_creation/authors/Dave_Kreutzweiser/Author_formDPK.xlsx
+++ b/website_content_creation/authors/Dave_Kreutzweiser/Author_formDPK.xlsx
@@ -182,44 +182,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -841,7 +849,7 @@
   <dimension ref="A1:C1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
